--- a/StructureDefinition-profile-DiagnosticReport.xlsx
+++ b/StructureDefinition-profile-DiagnosticReport.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="405">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6740124-06:00</t>
+    <t>2026-02-09T22:05:43.0773344-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -432,33 +432,115 @@
     <t>DiagnosticReport.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.extension:note</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DiagnosticReport.note|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DiagnosticReport.note from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Comments about the diagnostic report.</t>
+  </si>
+  <si>
+    <t>Element `DiagnosticReport.note` is will have a context of DiagnosticReport based on following the parent source element upwards and mapping to `DiagnosticReport`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.extension:supportingInfo</t>
+  </si>
+  <si>
+    <t>supportingInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DiagnosticReport.supportingInfo|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DiagnosticReport.supportingInfo from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This backbone element contains supporting information that was used in the creation of the report not included in the results already included in the report.</t>
+  </si>
+  <si>
+    <t>Element `DiagnosticReport.supportingInfo` is will have a context of DiagnosticReport based on following the parent source element upwards and mapping to `DiagnosticReport`.</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.extension:study</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DiagnosticReport.study from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/GenomicStudy,http://hl7.org/fhir/StructureDefinition/ImagingStudy in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DiagnosticReport.study` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `DiagnosticReport.study` is will have a context of DiagnosticReport based on following the parent source element upwards and mapping to `DiagnosticReport`.</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.extension:composition</t>
+  </si>
+  <si>
+    <t>composition</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DiagnosticReport.composition from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Composition in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DiagnosticReport.composition` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `DiagnosticReport.composition` is will have a context of DiagnosticReport based on following the parent source element upwards and mapping to `DiagnosticReport`.</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -466,6 +548,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -588,20 +673,13 @@
     <t>DiagnosticReport.status.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.status.extension:status</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DiagnosticReport.status|0.0.1-snapshot-3}
@@ -611,8 +689,8 @@
     <t>Cross-version extension for DiagnosticReport.status from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>Note that the target element context `DiagnosticReport.status` is a modifier element, so this extension does not need to be defined as a modifier.
+Element `DiagnosticReport.status` is mapped to FHIR R4 element `DiagnosticReport.status`.</t>
   </si>
   <si>
     <t>DiagnosticReport.status.value</t>
@@ -989,6 +1067,9 @@
     <t>DiagnosticReport.media.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -1052,14 +1133,20 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DiagnosticReport.media.link|0.0.1-snapshot-3}
-</t>
+    <t>DiagnosticReport.media.link.extension:link</t>
+  </si>
+  <si>
+    <t>link</t>
   </si>
   <si>
     <t>Cross-version extension for DiagnosticReport.media.link from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Reference to the image or data source.</t>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/DocumentReference in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DiagnosticReport.media.link` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `DiagnosticReport.media.link` is mapped to FHIR R4 element `DiagnosticReport.media.link`.</t>
   </si>
   <si>
     <t>DiagnosticReport.media.link.reference</t>
@@ -1508,7 +1595,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN44"/>
+  <dimension ref="A1:AN48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1517,9 +1604,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.36328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.453125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="35.36328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="54.296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2485,7 +2572,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2504,17 +2591,15 @@
         <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>139</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>80</v>
@@ -2551,16 +2636,14 @@
         <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>140</v>
@@ -2584,7 +2667,7 @@
         <v>80</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>80</v>
@@ -2595,11 +2678,13 @@
         <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2612,26 +2697,24 @@
         <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>80</v>
       </c>
@@ -2679,7 +2762,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2688,7 +2771,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>141</v>
@@ -2700,7 +2783,7 @@
         <v>80</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>80</v>
@@ -2708,14 +2791,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="D11" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2731,23 +2816,21 @@
         <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>80</v>
       </c>
@@ -2795,7 +2878,7 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2804,34 +2887,36 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>157</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="D12" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2850,20 +2935,18 @@
         <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>164</v>
-      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>80</v>
       </c>
@@ -2911,7 +2994,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2923,16 +3006,16 @@
         <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>80</v>
@@ -2940,18 +3023,20 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>90</v>
@@ -2960,24 +3045,24 @@
         <v>80</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>80</v>
       </c>
@@ -3001,13 +3086,13 @@
         <v>80</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>80</v>
@@ -3025,71 +3110,75 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>80</v>
       </c>
@@ -3137,19 +3226,19 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>80</v>
@@ -3158,7 +3247,7 @@
         <v>80</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>80</v>
@@ -3166,18 +3255,18 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>79</v>
@@ -3189,19 +3278,23 @@
         <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>80</v>
       </c>
@@ -3237,17 +3330,19 @@
         <v>80</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AC15" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3259,38 +3354,38 @@
         <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>80</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>80</v>
@@ -3302,16 +3397,20 @@
         <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M16" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>80</v>
       </c>
@@ -3359,7 +3458,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3368,19 +3467,19 @@
         <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AJ16" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AL16" t="s" s="2">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>80</v>
@@ -3388,10 +3487,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3399,7 +3498,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>90</v>
@@ -3408,22 +3507,24 @@
         <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>80</v>
       </c>
@@ -3447,13 +3548,13 @@
         <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>80</v>
@@ -3474,7 +3575,7 @@
         <v>194</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>90</v>
@@ -3483,38 +3584,38 @@
         <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>80</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>80</v>
@@ -3523,20 +3624,18 @@
         <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>80</v>
@@ -3561,13 +3660,13 @@
         <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>80</v>
@@ -3585,50 +3684,50 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>206</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>80</v>
@@ -3637,16 +3736,16 @@
         <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>197</v>
+        <v>135</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>209</v>
+        <v>136</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>210</v>
+        <v>137</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3673,71 +3772,71 @@
         <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>215</v>
+        <v>80</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>216</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="D20" t="s" s="2">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>90</v>
@@ -3749,21 +3848,21 @@
         <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>80</v>
       </c>
@@ -3811,43 +3910,43 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>223</v>
+        <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>224</v>
+        <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>225</v>
+        <v>80</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>226</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3863,23 +3962,19 @@
         <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>80</v>
       </c>
@@ -3927,7 +4022,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3939,38 +4034,38 @@
         <v>80</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>234</v>
+        <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>236</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>237</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>80</v>
@@ -3982,20 +4077,18 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4019,13 +4112,13 @@
         <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>80</v>
@@ -4043,13 +4136,13 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>80</v>
@@ -4058,32 +4151,32 @@
         <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>245</v>
+        <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>248</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>90</v>
@@ -4098,20 +4191,16 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>80</v>
       </c>
@@ -4135,13 +4224,13 @@
         <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>80</v>
+        <v>236</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>80</v>
@@ -4159,10 +4248,10 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>90</v>
@@ -4174,35 +4263,35 @@
         <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>258</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -4214,19 +4303,17 @@
         <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -4275,13 +4362,13 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>80</v>
@@ -4290,35 +4377,35 @@
         <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>269</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
@@ -4330,19 +4417,19 @@
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -4391,13 +4478,13 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>80</v>
@@ -4406,35 +4493,35 @@
         <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>80</v>
+        <v>263</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
@@ -4443,22 +4530,22 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -4507,13 +4594,13 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>80</v>
@@ -4522,35 +4609,35 @@
         <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>225</v>
+        <v>271</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>80</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
@@ -4559,22 +4646,22 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>80</v>
@@ -4623,13 +4710,13 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>80</v>
@@ -4641,25 +4728,25 @@
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>80</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4675,21 +4762,23 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
       </c>
@@ -4737,7 +4826,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4752,28 +4841,28 @@
         <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>80</v>
+        <v>291</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>80</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4792,17 +4881,19 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O29" t="s" s="2">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>80</v>
@@ -4851,7 +4942,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4866,24 +4957,24 @@
         <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>80</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4894,7 +4985,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
@@ -4906,16 +4997,20 @@
         <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>179</v>
+        <v>301</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
       </c>
@@ -4963,28 +5058,28 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>182</v>
+        <v>300</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>308</v>
+        <v>249</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -4992,14 +5087,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>135</v>
+        <v>308</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5018,18 +5113,20 @@
         <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>136</v>
+        <v>309</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>137</v>
+        <v>310</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5077,7 +5174,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>188</v>
+        <v>307</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5089,16 +5186,16 @@
         <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>80</v>
+        <v>314</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -5106,14 +5203,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>312</v>
+        <v>80</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5126,26 +5223,24 @@
         <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>136</v>
+        <v>317</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5193,7 +5288,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5205,7 +5300,7 @@
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
@@ -5214,7 +5309,7 @@
         <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>133</v>
+        <v>321</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -5222,21 +5317,21 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>80</v>
+        <v>323</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -5245,22 +5340,20 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>179</v>
+        <v>324</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -5309,13 +5402,13 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
@@ -5327,10 +5420,10 @@
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>80</v>
+        <v>328</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -5338,10 +5431,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5349,7 +5442,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>90</v>
@@ -5361,16 +5454,16 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>323</v>
+        <v>205</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5421,10 +5514,10 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>322</v>
+        <v>208</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>90</v>
@@ -5433,7 +5526,7 @@
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
@@ -5442,7 +5535,7 @@
         <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -5450,21 +5543,21 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
@@ -5476,15 +5569,17 @@
         <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -5533,19 +5628,19 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
@@ -5554,7 +5649,7 @@
         <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -5562,18 +5657,18 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>80</v>
+        <v>337</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>79</v>
@@ -5582,22 +5677,26 @@
         <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>184</v>
+        <v>338</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
@@ -5633,19 +5732,19 @@
         <v>80</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>329</v>
+        <v>80</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>188</v>
+        <v>340</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5666,7 +5765,7 @@
         <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -5674,10 +5773,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5685,7 +5784,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>90</v>
@@ -5700,16 +5799,20 @@
         <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>330</v>
+        <v>205</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
@@ -5757,19 +5860,19 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>188</v>
+        <v>341</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
@@ -5778,7 +5881,7 @@
         <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>80</v>
+        <v>346</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
@@ -5786,10 +5889,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5797,7 +5900,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>90</v>
@@ -5812,17 +5915,15 @@
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>179</v>
+        <v>348</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -5871,16 +5972,16 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>338</v>
+        <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>102</v>
@@ -5892,7 +5993,7 @@
         <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>133</v>
+        <v>351</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -5900,10 +6001,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5923,20 +6024,18 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -5961,13 +6060,13 @@
         <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>343</v>
+        <v>80</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>344</v>
+        <v>80</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>345</v>
+        <v>80</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>80</v>
@@ -5985,7 +6084,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>346</v>
+        <v>208</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5997,7 +6096,7 @@
         <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>80</v>
@@ -6006,7 +6105,7 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>133</v>
+        <v>332</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6014,10 +6113,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6025,10 +6124,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -6037,20 +6136,18 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>348</v>
+        <v>136</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6087,31 +6184,31 @@
         <v>80</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>80</v>
+        <v>354</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>351</v>
+        <v>210</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
@@ -6120,7 +6217,7 @@
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>352</v>
+        <v>80</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -6128,18 +6225,20 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="C41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="D41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>90</v>
@@ -6151,19 +6250,19 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6213,19 +6312,19 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>357</v>
+        <v>210</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
@@ -6234,7 +6333,7 @@
         <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -6242,14 +6341,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>359</v>
+        <v>80</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6265,21 +6364,21 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
         <v>362</v>
       </c>
+      <c r="N42" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6327,7 +6426,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6336,7 +6435,7 @@
         <v>90</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>80</v>
+        <v>365</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>102</v>
@@ -6345,10 +6444,10 @@
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>363</v>
+        <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>364</v>
+        <v>133</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -6356,10 +6455,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6370,7 +6469,7 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>80</v>
@@ -6379,18 +6478,20 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>197</v>
+        <v>104</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>80</v>
@@ -6415,13 +6516,13 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>201</v>
+        <v>370</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>80</v>
@@ -6439,13 +6540,13 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>80</v>
@@ -6457,10 +6558,10 @@
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>363</v>
+        <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>370</v>
+        <v>133</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -6468,10 +6569,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6482,7 +6583,7 @@
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
@@ -6491,23 +6592,21 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>372</v>
+        <v>175</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>80</v>
       </c>
@@ -6555,13 +6654,13 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>80</v>
@@ -6573,12 +6672,468 @@
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>363</v>
+        <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AN44" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="P46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="P48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/StructureDefinition-profile-DiagnosticReport.xlsx
+++ b/StructureDefinition-profile-DiagnosticReport.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="376">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.0773344-06:00</t>
+    <t>2026-02-17T14:42:26.791804-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -472,7 +472,7 @@
     <t>Comments about the diagnostic report.</t>
   </si>
   <si>
-    <t>Element `DiagnosticReport.note` is will have a context of DiagnosticReport based on following the parent source element upwards and mapping to `DiagnosticReport`.</t>
+    <t>Element `DiagnosticReport.note` has a context of DiagnosticReport based on following the parent source element upwards and mapping to `DiagnosticReport`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -495,7 +495,7 @@
     <t>This backbone element contains supporting information that was used in the creation of the report not included in the results already included in the report.</t>
   </si>
   <si>
-    <t>Element `DiagnosticReport.supportingInfo` is will have a context of DiagnosticReport based on following the parent source element upwards and mapping to `DiagnosticReport`.</t>
+    <t>Element `DiagnosticReport.supportingInfo` has a context of DiagnosticReport based on following the parent source element upwards and mapping to `DiagnosticReport`.</t>
   </si>
   <si>
     <t>DiagnosticReport.extension:study</t>
@@ -515,7 +515,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DiagnosticReport.study` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `DiagnosticReport.study` is will have a context of DiagnosticReport based on following the parent source element upwards and mapping to `DiagnosticReport`.</t>
+Element `DiagnosticReport.study` has a context of DiagnosticReport based on following the parent source element upwards and mapping to `DiagnosticReport`.</t>
   </si>
   <si>
     <t>DiagnosticReport.extension:composition</t>
@@ -531,7 +531,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DiagnosticReport.composition` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `DiagnosticReport.composition` is will have a context of DiagnosticReport based on following the parent source element upwards and mapping to `DiagnosticReport`.</t>
+Element `DiagnosticReport.composition` has a context of DiagnosticReport based on following the parent source element upwards and mapping to `DiagnosticReport`.</t>
   </si>
   <si>
     <t>DiagnosticReport.modifierExtension</t>
@@ -690,7 +690,7 @@
   </si>
   <si>
     <t>Note that the target element context `DiagnosticReport.status` is a modifier element, so this extension does not need to be defined as a modifier.
-Element `DiagnosticReport.status` is mapped to FHIR R4 element `DiagnosticReport.status`.</t>
+Element `DiagnosticReport.status` has is mapped to FHIR R4 element `DiagnosticReport.status`, but has no comparisons.</t>
   </si>
   <si>
     <t>DiagnosticReport.status.value</t>
@@ -1067,10 +1067,23 @@
     <t>DiagnosticReport.media.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>DiagnosticReport.media.extension:media</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DiagnosticReport.media|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DiagnosticReport.media from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A list of key images or data associated with this report. The images or data are generally created during the diagnostic process, and may be directly of the patient, or of treated specimens (i.e. slides of interest).</t>
+  </si>
+  <si>
+    <t>Element `DiagnosticReport.media` has is mapped to FHIR R4 element `DiagnosticReport.media`, but has no comparisons.</t>
   </si>
   <si>
     <t>DiagnosticReport.media.modifierExtension</t>
@@ -1122,111 +1135,6 @@
   </si>
   <si>
     <t>.value.reference</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.media.link.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.media.link.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.media.link.extension:link</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>Cross-version extension for DiagnosticReport.media.link from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/DocumentReference in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DiagnosticReport.media.link` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `DiagnosticReport.media.link` is mapped to FHIR R4 element `DiagnosticReport.media.link`.</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.media.link.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.media.link.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.media.link.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.media.link.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
   </si>
   <si>
     <t>DiagnosticReport.conclusion</t>
@@ -1595,7 +1503,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN48"/>
+  <dimension ref="A1:AN42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1628,11 +1536,11 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.6796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="41.98046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="50.59765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
@@ -5550,7 +5458,7 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5572,14 +5480,12 @@
         <v>135</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>334</v>
+        <v>136</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -5616,16 +5522,14 @@
         <v>80</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AC35" s="2"/>
       <c r="AD35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>210</v>
@@ -5649,7 +5553,7 @@
         <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -5657,14 +5561,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="D36" t="s" s="2">
-        <v>337</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5677,26 +5583,24 @@
         <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>135</v>
+        <v>336</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="N36" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>171</v>
-      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
@@ -5744,7 +5648,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>340</v>
+        <v>210</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5753,7 +5657,7 @@
         <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>141</v>
@@ -5765,7 +5669,7 @@
         <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -5773,33 +5677,33 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>80</v>
+        <v>341</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>205</v>
+        <v>135</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>342</v>
@@ -5808,10 +5712,10 @@
         <v>343</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>344</v>
+        <v>170</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>345</v>
+        <v>171</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -5860,19 +5764,19 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
@@ -5881,7 +5785,7 @@
         <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>346</v>
+        <v>133</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
@@ -5889,10 +5793,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5900,7 +5804,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>90</v>
@@ -5912,19 +5816,23 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="M38" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
       </c>
@@ -5972,10 +5880,10 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>90</v>
@@ -5993,7 +5901,7 @@
         <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6001,10 +5909,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6012,7 +5920,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>90</v>
@@ -6024,16 +5932,16 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>205</v>
+        <v>352</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6084,10 +5992,10 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>208</v>
+        <v>351</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>90</v>
@@ -6096,7 +6004,7 @@
         <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>80</v>
@@ -6105,7 +6013,7 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6113,22 +6021,22 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>80</v>
+        <v>357</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G40" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6139,16 +6047,18 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>136</v>
+        <v>358</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>137</v>
+        <v>359</v>
       </c>
       <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6184,40 +6094,40 @@
         <v>80</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>210</v>
+        <v>356</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>80</v>
+        <v>361</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>80</v>
+        <v>362</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -6225,23 +6135,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -6253,17 +6161,15 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -6288,13 +6194,13 @@
         <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>80</v>
+        <v>367</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>80</v>
@@ -6312,7 +6218,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>210</v>
+        <v>363</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6324,16 +6230,16 @@
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>80</v>
+        <v>361</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>80</v>
+        <v>368</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -6341,10 +6247,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6355,7 +6261,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
@@ -6364,21 +6270,23 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>205</v>
+        <v>370</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6426,16 +6334,16 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>102</v>
@@ -6444,696 +6352,12 @@
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>80</v>
+        <v>361</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>133</v>
+        <v>375</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="O43" s="2"/>
-      <c r="P43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q43" s="2"/>
-      <c r="R43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="O44" s="2"/>
-      <c r="P44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q44" s="2"/>
-      <c r="R44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="O45" s="2"/>
-      <c r="P45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q45" s="2"/>
-      <c r="R45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="P46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q46" s="2"/>
-      <c r="R46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q47" s="2"/>
-      <c r="R47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="P48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q48" s="2"/>
-      <c r="R48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AN48" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/StructureDefinition-profile-DiagnosticReport.xlsx
+++ b/StructureDefinition-profile-DiagnosticReport.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="409">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.791804-06:00</t>
+    <t>2026-02-20T11:59:20.7880226-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/DiagnosticReport|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/DiagnosticReport</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -462,7 +462,7 @@
     <t>note</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DiagnosticReport.note|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DiagnosticReport.note}
 </t>
   </si>
   <si>
@@ -485,7 +485,7 @@
     <t>supportingInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DiagnosticReport.supportingInfo|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DiagnosticReport.supportingInfo}
 </t>
   </si>
   <si>
@@ -504,7 +504,7 @@
     <t>study</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -682,7 +682,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DiagnosticReport.status|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DiagnosticReport.status}
 </t>
   </si>
   <si>
@@ -803,6 +803,120 @@
     <t>FiveWs.subject</t>
   </si>
   <si>
+    <t>DiagnosticReport.subject.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.subject.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.subject.extension:subject</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DiagnosticReport.subject from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/BiologicallyDerivedProduct,http://hl7.org/fhir/StructureDefinition/Medication,http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/Substance in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DiagnosticReport.subject` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `DiagnosticReport.subject` has is mapped to FHIR R4 element `DiagnosticReport.subject`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.subject.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.subject.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.subject.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.subject.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
     <t>DiagnosticReport.encounter</t>
   </si>
   <si>
@@ -1055,15 +1169,6 @@
     <t>DiagnosticReport.media.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>DiagnosticReport.media.extension</t>
   </si>
   <si>
@@ -1073,7 +1178,7 @@
     <t>media</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DiagnosticReport.media|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DiagnosticReport.media}
 </t>
   </si>
   <si>
@@ -1503,7 +1608,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN42"/>
+  <dimension ref="A1:AN49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1512,7 +1617,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.67578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="35.36328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="54.296875" customWidth="true" bestFit="true" hidden="true"/>
@@ -1536,11 +1641,11 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="41.98046875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.6796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="50.59765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
@@ -4306,7 +4411,7 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>252</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4322,23 +4427,19 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>257</v>
-      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4386,7 +4487,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>251</v>
+        <v>208</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4398,38 +4499,38 @@
         <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>258</v>
+        <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>259</v>
+        <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>261</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>263</v>
+        <v>80</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
@@ -4438,23 +4539,19 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>264</v>
+        <v>135</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>265</v>
+        <v>136</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>80</v>
       </c>
@@ -4490,55 +4587,57 @@
         <v>80</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>262</v>
+        <v>210</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>269</v>
+        <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>271</v>
+        <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>272</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="D27" t="s" s="2">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4554,23 +4653,21 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>275</v>
+        <v>157</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>80</v>
       </c>
@@ -4618,50 +4715,50 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>273</v>
+        <v>210</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>281</v>
+        <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>282</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
@@ -4673,20 +4770,18 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>285</v>
+        <v>205</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>80</v>
       </c>
@@ -4734,50 +4829,50 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>292</v>
+        <v>133</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>293</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -4789,20 +4884,18 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>285</v>
+        <v>104</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>80</v>
       </c>
@@ -4826,13 +4919,13 @@
         <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>80</v>
+        <v>273</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>80</v>
@@ -4850,13 +4943,13 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>80</v>
@@ -4865,24 +4958,24 @@
         <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>299</v>
+        <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>292</v>
+        <v>133</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>293</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4893,7 +4986,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
@@ -4902,23 +4995,21 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>301</v>
+        <v>175</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>80</v>
       </c>
@@ -4966,13 +5057,13 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
@@ -4984,10 +5075,10 @@
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>306</v>
+        <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -4995,21 +5086,21 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -5018,23 +5109,21 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>309</v>
+        <v>205</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5082,13 +5171,13 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
@@ -5100,10 +5189,10 @@
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>314</v>
+        <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>315</v>
+        <v>133</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -5111,21 +5200,21 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>80</v>
+        <v>288</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
@@ -5134,21 +5223,23 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5196,13 +5287,13 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
@@ -5211,35 +5302,35 @@
         <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>80</v>
+        <v>294</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>80</v>
+        <v>295</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>80</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -5251,17 +5342,19 @@
         <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O33" t="s" s="2">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -5310,13 +5403,13 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
@@ -5325,28 +5418,28 @@
         <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5362,19 +5455,23 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>205</v>
+        <v>311</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
       </c>
@@ -5422,7 +5519,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>208</v>
+        <v>309</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5434,31 +5531,31 @@
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>80</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5474,19 +5571,23 @@
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>135</v>
+        <v>321</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>136</v>
+        <v>322</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
       </c>
@@ -5522,17 +5623,19 @@
         <v>80</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AC35" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>210</v>
+        <v>319</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5544,33 +5647,31 @@
         <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>80</v>
+        <v>326</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>80</v>
+        <v>327</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>80</v>
+        <v>328</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>80</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>80</v>
+        <v>331</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5586,21 +5687,23 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
@@ -5648,7 +5751,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>210</v>
+        <v>330</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5657,34 +5760,34 @@
         <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>80</v>
+        <v>326</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>80</v>
+        <v>335</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>80</v>
+        <v>328</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>80</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>341</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5697,25 +5800,25 @@
         <v>80</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>135</v>
+        <v>337</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>171</v>
+        <v>341</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -5764,7 +5867,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5776,16 +5879,16 @@
         <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>80</v>
+        <v>342</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>133</v>
+        <v>249</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
@@ -5793,21 +5896,21 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>80</v>
+        <v>344</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -5819,7 +5922,7 @@
         <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>205</v>
+        <v>345</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>346</v>
@@ -5880,13 +5983,13 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>80</v>
@@ -5898,10 +6001,10 @@
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -5909,10 +6012,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5920,10 +6023,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -5932,18 +6035,20 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -5992,13 +6097,13 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>80</v>
@@ -6013,7 +6118,7 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6021,21 +6126,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -6044,20 +6149,20 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>205</v>
+        <v>360</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6106,13 +6211,13 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
@@ -6124,10 +6229,10 @@
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -6135,10 +6240,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6149,7 +6254,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -6161,13 +6266,13 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>364</v>
+        <v>252</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>365</v>
+        <v>253</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6194,13 +6299,13 @@
         <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>225</v>
+        <v>80</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>366</v>
+        <v>80</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>367</v>
+        <v>80</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>80</v>
@@ -6218,28 +6323,28 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>363</v>
+        <v>208</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>361</v>
+        <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>368</v>
+        <v>254</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -6247,10 +6352,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6273,20 +6378,16 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>370</v>
+        <v>135</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>371</v>
+        <v>136</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6322,19 +6423,17 @@
         <v>80</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>369</v>
+        <v>210</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6346,18 +6445,820 @@
         <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="D43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="O43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="P44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="P45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AK42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AN42" t="s" s="2">
+      <c r="AK45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="P47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="P49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/StructureDefinition-profile-DiagnosticReport.xlsx
+++ b/StructureDefinition-profile-DiagnosticReport.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="361">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.7880226-06:00</t>
+    <t>2026-02-21T13:36:54.203868-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/DiagnosticReport</t>
+    <t>http://hl7.org/fhir/StructureDefinition/DiagnosticReport|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -462,7 +462,7 @@
     <t>note</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DiagnosticReport.note}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DiagnosticReport.note|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -485,7 +485,7 @@
     <t>supportingInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DiagnosticReport.supportingInfo}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DiagnosticReport.supportingInfo|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -496,42 +496,6 @@
   </si>
   <si>
     <t>Element `DiagnosticReport.supportingInfo` has a context of DiagnosticReport based on following the parent source element upwards and mapping to `DiagnosticReport`.</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.extension:study</t>
-  </si>
-  <si>
-    <t>study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for DiagnosticReport.study from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/GenomicStudy,http://hl7.org/fhir/StructureDefinition/ImagingStudy in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DiagnosticReport.study` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `DiagnosticReport.study` has a context of DiagnosticReport based on following the parent source element upwards and mapping to `DiagnosticReport`.</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.extension:composition</t>
-  </si>
-  <si>
-    <t>composition</t>
-  </si>
-  <si>
-    <t>Cross-version extension for DiagnosticReport.composition from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Composition in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DiagnosticReport.composition` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `DiagnosticReport.composition` has a context of DiagnosticReport based on following the parent source element upwards and mapping to `DiagnosticReport`.</t>
   </si>
   <si>
     <t>DiagnosticReport.modifierExtension</t>
@@ -682,7 +646,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DiagnosticReport.status}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DiagnosticReport.status|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -690,7 +654,7 @@
   </si>
   <si>
     <t>Note that the target element context `DiagnosticReport.status` is a modifier element, so this extension does not need to be defined as a modifier.
-Element `DiagnosticReport.status` has is mapped to FHIR R4 element `DiagnosticReport.status`, but has no comparisons.</t>
+Element `DiagnosticReport.status` is mapped to FHIR R4 element `DiagnosticReport.status` as `RelatedTo`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>DiagnosticReport.status.value</t>
@@ -803,120 +767,6 @@
     <t>FiveWs.subject</t>
   </si>
   <si>
-    <t>DiagnosticReport.subject.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.subject.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.subject.extension:subject</t>
-  </si>
-  <si>
-    <t>subject</t>
-  </si>
-  <si>
-    <t>Cross-version extension for DiagnosticReport.subject from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/BiologicallyDerivedProduct,http://hl7.org/fhir/StructureDefinition/Medication,http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/Substance in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DiagnosticReport.subject` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `DiagnosticReport.subject` has is mapped to FHIR R4 element `DiagnosticReport.subject`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.subject.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.subject.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.subject.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.subject.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
     <t>DiagnosticReport.encounter</t>
   </si>
   <si>
@@ -1169,26 +1019,22 @@
     <t>DiagnosticReport.media.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>DiagnosticReport.media.extension</t>
   </si>
   <si>
-    <t>DiagnosticReport.media.extension:media</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DiagnosticReport.media}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for DiagnosticReport.media from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A list of key images or data associated with this report. The images or data are generally created during the diagnostic process, and may be directly of the patient, or of treated specimens (i.e. slides of interest).</t>
-  </si>
-  <si>
-    <t>Element `DiagnosticReport.media` has is mapped to FHIR R4 element `DiagnosticReport.media`, but has no comparisons.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>DiagnosticReport.media.modifierExtension</t>
@@ -1608,7 +1454,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN49"/>
+  <dimension ref="A1:AN39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1617,7 +1463,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.67578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.453125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="35.36328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="54.296875" customWidth="true" bestFit="true" hidden="true"/>
@@ -1641,11 +1487,11 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.6796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="41.98046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="50.59765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
@@ -2923,13 +2769,11 @@
         <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2942,24 +2786,26 @@
         <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>80</v>
       </c>
@@ -3007,7 +2853,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3028,7 +2874,7 @@
         <v>80</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>80</v>
@@ -3036,23 +2882,21 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C13" t="s" s="2">
         <v>162</v>
       </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>80</v>
@@ -3061,21 +2905,23 @@
         <v>80</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O13" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P13" t="s" s="2">
         <v>80</v>
       </c>
@@ -3123,7 +2969,7 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3135,31 +2981,31 @@
         <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>80</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3172,25 +3018,25 @@
         <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>80</v>
@@ -3239,7 +3085,7 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3251,16 +3097,16 @@
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>80</v>
@@ -3268,45 +3114,43 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>80</v>
@@ -3331,13 +3175,13 @@
         <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>80</v>
+        <v>187</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>80</v>
@@ -3355,13 +3199,13 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>80</v>
@@ -3370,35 +3214,35 @@
         <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>80</v>
@@ -3410,20 +3254,16 @@
         <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>80</v>
       </c>
@@ -3471,28 +3311,28 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>193</v>
+        <v>80</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>80</v>
@@ -3500,10 +3340,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3514,30 +3354,28 @@
         <v>90</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>196</v>
+        <v>137</v>
       </c>
       <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>197</v>
-      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>80</v>
       </c>
@@ -3561,71 +3399,71 @@
         <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>198</v>
+        <v>80</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="Z17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AC17" s="2"/>
+      <c r="AD17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AA17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>194</v>
-      </c>
       <c r="AG17" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>203</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="D18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>90</v>
@@ -3640,15 +3478,17 @@
         <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>80</v>
@@ -3697,19 +3537,19 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
@@ -3726,10 +3566,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3737,11 +3577,11 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G19" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H19" t="s" s="2">
         <v>80</v>
       </c>
@@ -3752,13 +3592,13 @@
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>136</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>137</v>
+        <v>206</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3797,29 +3637,31 @@
         <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AC19" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>80</v>
@@ -3836,23 +3678,21 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="D20" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>80</v>
@@ -3861,19 +3701,19 @@
         <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3899,13 +3739,13 @@
         <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>80</v>
+        <v>214</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>80</v>
@@ -3923,7 +3763,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3932,38 +3772,38 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>80</v>
+        <v>217</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>80</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>90</v>
@@ -3975,16 +3815,16 @@
         <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4011,13 +3851,13 @@
         <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>80</v>
@@ -4035,10 +3875,10 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>90</v>
@@ -4047,38 +3887,38 @@
         <v>80</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>80</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>80</v>
@@ -4090,18 +3930,18 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4125,13 +3965,13 @@
         <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>225</v>
+        <v>80</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>80</v>
@@ -4149,13 +3989,13 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>80</v>
@@ -4164,32 +4004,32 @@
         <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>80</v>
+        <v>236</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>230</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>90</v>
@@ -4204,16 +4044,20 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
       </c>
@@ -4237,13 +4081,13 @@
         <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>236</v>
+        <v>80</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>80</v>
@@ -4261,10 +4105,10 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>90</v>
@@ -4276,28 +4120,28 @@
         <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4316,17 +4160,19 @@
         <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -4375,7 +4221,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4390,28 +4236,28 @@
         <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>250</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>80</v>
+        <v>263</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4427,19 +4273,23 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>205</v>
+        <v>264</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4487,7 +4337,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4499,31 +4349,31 @@
         <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>80</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>80</v>
+        <v>273</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4539,19 +4389,23 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>135</v>
+        <v>274</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>136</v>
+        <v>275</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>80</v>
       </c>
@@ -4587,19 +4441,19 @@
         <v>80</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4611,40 +4465,38 @@
         <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>80</v>
+        <v>279</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>80</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
@@ -4653,21 +4505,23 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>157</v>
+        <v>274</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>80</v>
       </c>
@@ -4715,7 +4569,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>210</v>
+        <v>283</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4727,27 +4581,27 @@
         <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>80</v>
+        <v>279</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>80</v>
+        <v>288</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>80</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4758,7 +4612,7 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
@@ -4767,21 +4621,23 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
       </c>
@@ -4829,16 +4685,16 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>267</v>
+        <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>102</v>
@@ -4847,10 +4703,10 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>80</v>
+        <v>295</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>133</v>
+        <v>238</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
@@ -4858,21 +4714,21 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>80</v>
+        <v>297</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -4881,21 +4737,23 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>104</v>
+        <v>298</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>80</v>
       </c>
@@ -4919,13 +4777,13 @@
         <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>272</v>
+        <v>80</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>273</v>
+        <v>80</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>80</v>
@@ -4943,13 +4801,13 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>80</v>
@@ -4961,10 +4819,10 @@
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>80</v>
+        <v>303</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>133</v>
+        <v>304</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
@@ -4972,10 +4830,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4986,7 +4844,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
@@ -4995,19 +4853,19 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>175</v>
+        <v>306</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5057,13 +4915,13 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
@@ -5078,7 +4936,7 @@
         <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5086,21 +4944,21 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -5112,18 +4970,18 @@
         <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>205</v>
+        <v>313</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5171,13 +5029,13 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
@@ -5189,10 +5047,10 @@
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>80</v>
+        <v>317</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>133</v>
+        <v>304</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -5200,14 +5058,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>288</v>
+        <v>80</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5223,23 +5081,19 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>289</v>
+        <v>194</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5287,7 +5141,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>287</v>
+        <v>197</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5299,38 +5153,38 @@
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>297</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>299</v>
+        <v>156</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -5339,23 +5193,21 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>300</v>
+        <v>135</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5403,74 +5255,74 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>298</v>
+        <v>199</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>306</v>
+        <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>311</v>
+        <v>135</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>314</v>
+        <v>159</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>315</v>
+        <v>160</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -5519,50 +5371,50 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>316</v>
+        <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>317</v>
+        <v>133</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>318</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
@@ -5571,22 +5423,22 @@
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>321</v>
+        <v>194</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -5635,13 +5487,13 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>80</v>
@@ -5650,35 +5502,35 @@
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>327</v>
+        <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>329</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
@@ -5690,20 +5542,16 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
@@ -5751,13 +5599,13 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>80</v>
@@ -5766,35 +5614,35 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>335</v>
+        <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>329</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>80</v>
+        <v>342</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -5806,19 +5654,17 @@
         <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>337</v>
+        <v>194</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -5867,13 +5713,13 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>80</v>
@@ -5885,10 +5731,10 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>249</v>
+        <v>347</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
@@ -5896,14 +5742,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>344</v>
+        <v>80</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5922,20 +5768,16 @@
         <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>345</v>
+        <v>210</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
       </c>
@@ -5959,13 +5801,13 @@
         <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>80</v>
+        <v>214</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>80</v>
+        <v>351</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>80</v>
+        <v>352</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
@@ -5983,7 +5825,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6001,10 +5843,10 @@
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6012,10 +5854,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6038,18 +5880,20 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6097,7 +5941,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6115,1150 +5959,12 @@
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>80</v>
+        <v>346</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="P40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q42" s="2"/>
-      <c r="R42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AC42" s="2"/>
-      <c r="AD42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="D43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="O43" s="2"/>
-      <c r="P43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q43" s="2"/>
-      <c r="R43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="P44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q44" s="2"/>
-      <c r="R44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="P45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q45" s="2"/>
-      <c r="R45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q46" s="2"/>
-      <c r="R46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="P47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q47" s="2"/>
-      <c r="R47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q48" s="2"/>
-      <c r="R48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="P49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q49" s="2"/>
-      <c r="R49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AN49" t="s" s="2">
         <v>80</v>
       </c>
     </row>
